--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb1-Ephb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H2">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I2">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J2">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N2">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O2">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P2">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q2">
-        <v>0.5193619489004445</v>
+        <v>0.6684870476937779</v>
       </c>
       <c r="R2">
-        <v>4.674257540104</v>
+        <v>6.016383429244001</v>
       </c>
       <c r="S2">
-        <v>0.001183816212417291</v>
+        <v>0.00195582184367587</v>
       </c>
       <c r="T2">
-        <v>0.001310801782589378</v>
+        <v>0.002123713729680133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H3">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I3">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J3">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>16.251742</v>
       </c>
       <c r="N3">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O3">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P3">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q3">
-        <v>170.9949028554173</v>
+        <v>105.4481711656187</v>
       </c>
       <c r="R3">
-        <v>1538.954125698756</v>
+        <v>949.0335404905679</v>
       </c>
       <c r="S3">
-        <v>0.3897600482082401</v>
+        <v>0.3085143343508174</v>
       </c>
       <c r="T3">
-        <v>0.4315688200706897</v>
+        <v>0.3349978576947221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H4">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I4">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J4">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N4">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O4">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P4">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q4">
-        <v>0.06456075440533333</v>
+        <v>11.48318772598734</v>
       </c>
       <c r="R4">
-        <v>0.5810467896480001</v>
+        <v>68.89912635592401</v>
       </c>
       <c r="S4">
-        <v>0.0001471576189066847</v>
+        <v>0.03359686543964989</v>
       </c>
       <c r="T4">
-        <v>0.000162942918977778</v>
+        <v>0.02432059431149462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.52163533333333</v>
+        <v>6.488422666666668</v>
       </c>
       <c r="H5">
-        <v>31.564906</v>
+        <v>19.465268</v>
       </c>
       <c r="I5">
-        <v>0.4782136086181363</v>
+        <v>0.3444204430827928</v>
       </c>
       <c r="J5">
-        <v>0.4973545982298819</v>
+        <v>0.361825925629615</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N5">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O5">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P5">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q5">
-        <v>38.22228136773067</v>
+        <v>0.1207971275928889</v>
       </c>
       <c r="R5">
-        <v>229.333688206384</v>
+        <v>1.087174148336</v>
       </c>
       <c r="S5">
-        <v>0.08712258657857209</v>
+        <v>0.000353421448649666</v>
       </c>
       <c r="T5">
-        <v>0.0643120334576251</v>
+        <v>0.0003837598937181753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>25.529465</v>
       </c>
       <c r="I6">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J6">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N6">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O6">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P6">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q6">
-        <v>0.4200561438955556</v>
+        <v>0.8767470700661112</v>
       </c>
       <c r="R6">
-        <v>3.78050529506</v>
+        <v>7.890723630595001</v>
       </c>
       <c r="S6">
-        <v>0.000957461890155472</v>
+        <v>0.002565137315569382</v>
       </c>
       <c r="T6">
-        <v>0.001060166890107423</v>
+        <v>0.002785334131124648</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>25.529465</v>
       </c>
       <c r="I7">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J7">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,25 +871,25 @@
         <v>16.251742</v>
       </c>
       <c r="N7">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O7">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P7">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q7">
-        <v>138.2994261926767</v>
+        <v>138.2994261926766</v>
       </c>
       <c r="R7">
         <v>1244.69483573409</v>
       </c>
       <c r="S7">
-        <v>0.3152350749636504</v>
+        <v>0.4046286904864341</v>
       </c>
       <c r="T7">
-        <v>0.3490497037148145</v>
+        <v>0.4393628735598393</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>25.529465</v>
       </c>
       <c r="I8">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J8">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N8">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O8">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P8">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q8">
-        <v>0.05221626574666667</v>
+        <v>15.06065260129084</v>
       </c>
       <c r="R8">
-        <v>0.4699463917200001</v>
+        <v>90.363915607745</v>
       </c>
       <c r="S8">
-        <v>0.0001190200053616996</v>
+        <v>0.04406361116380475</v>
       </c>
       <c r="T8">
-        <v>0.0001317870405519668</v>
+        <v>0.03189741652950788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>25.529465</v>
       </c>
       <c r="I9">
-        <v>0.3867756673737729</v>
+        <v>0.4517209651039303</v>
       </c>
       <c r="J9">
-        <v>0.4022567597096229</v>
+        <v>0.4745489404232121</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N9">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O9">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P9">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q9">
-        <v>30.91390148279334</v>
+        <v>0.1584301865755556</v>
       </c>
       <c r="R9">
-        <v>185.48340889676</v>
+        <v>1.42587167918</v>
       </c>
       <c r="S9">
-        <v>0.07046411051460524</v>
+        <v>0.0004635261381220614</v>
       </c>
       <c r="T9">
-        <v>0.052015102064149</v>
+        <v>0.0005033162027402795</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H10">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I10">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J10">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N10">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O10">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P10">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q10">
-        <v>0.005671600746222222</v>
+        <v>0.03417674969733333</v>
       </c>
       <c r="R10">
-        <v>0.051044406716</v>
+        <v>0.307590747276</v>
       </c>
       <c r="S10">
-        <v>1.292765657543944E-05</v>
+        <v>9.999241396597275E-05</v>
       </c>
       <c r="T10">
-        <v>1.431438014283255E-05</v>
+        <v>0.0001085759743864424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H11">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I11">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J11">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,25 +1119,25 @@
         <v>16.251742</v>
       </c>
       <c r="N11">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O11">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P11">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q11">
-        <v>1.867319738552667</v>
+        <v>5.391092863207998</v>
       </c>
       <c r="R11">
-        <v>16.805877646974</v>
+        <v>48.51983576887199</v>
       </c>
       <c r="S11">
-        <v>0.004256306001903892</v>
+        <v>0.01577295658834862</v>
       </c>
       <c r="T11">
-        <v>0.004712871335956035</v>
+        <v>0.01712694056088885</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1148996666666667</v>
+        <v>0.331724</v>
       </c>
       <c r="H12">
-        <v>0.344699</v>
+        <v>0.9951719999999999</v>
       </c>
       <c r="I12">
-        <v>0.005222247538993557</v>
+        <v>0.01760867516355742</v>
       </c>
       <c r="J12">
-        <v>0.005431273346901209</v>
+        <v>0.0184985395557192</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N12">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O12">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P12">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q12">
-        <v>0.0007050243546666666</v>
+        <v>0.5870839741659999</v>
       </c>
       <c r="R12">
-        <v>0.006345219192</v>
+        <v>3.522503844996</v>
       </c>
       <c r="S12">
-        <v>1.607008874967513E-06</v>
+        <v>0.001717657304965297</v>
       </c>
       <c r="T12">
-        <v>1.779389465906254E-06</v>
+        <v>0.001243403095305891</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,55 +1213,55 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.331724</v>
+      </c>
+      <c r="H13">
+        <v>0.9951719999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.01760867516355742</v>
+      </c>
+      <c r="J13">
+        <v>0.0184985395557192</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.1148996666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.344699</v>
-      </c>
-      <c r="I13">
-        <v>0.005222247538993557</v>
-      </c>
-      <c r="J13">
-        <v>0.005431273346901209</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N13">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O13">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P13">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q13">
-        <v>0.4173996958893333</v>
+        <v>0.006175816282666666</v>
       </c>
       <c r="R13">
-        <v>2.504398175336</v>
+        <v>0.055582346544</v>
       </c>
       <c r="S13">
-        <v>0.0009514068716392572</v>
+        <v>1.806885627752904E-05</v>
       </c>
       <c r="T13">
-        <v>0.0007023082413364359</v>
+        <v>1.961992513801012E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="H14">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="I14">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J14">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N14">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O14">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P14">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q14">
-        <v>0.125391385714</v>
+        <v>0.2800991022718334</v>
       </c>
       <c r="R14">
-        <v>0.752348314284</v>
+        <v>1.680594613631</v>
       </c>
       <c r="S14">
-        <v>0.0002858129202957018</v>
+        <v>0.0008194982154212233</v>
       </c>
       <c r="T14">
-        <v>0.0002109809960256574</v>
+        <v>0.0005932304509792712</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="H15">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="I15">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J15">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,25 +1367,25 @@
         <v>16.251742</v>
       </c>
       <c r="N15">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O15">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P15">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q15">
-        <v>41.283902034921</v>
+        <v>44.183261562947</v>
       </c>
       <c r="R15">
-        <v>247.703412209526</v>
+        <v>265.099569377682</v>
       </c>
       <c r="S15">
-        <v>0.09410114207299188</v>
+        <v>0.1292689041437362</v>
       </c>
       <c r="T15">
-        <v>0.06946345414046101</v>
+        <v>0.09357708029097779</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="H16">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="I16">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J16">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N16">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O16">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P16">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q16">
-        <v>0.015587130468</v>
+        <v>4.81150769392525</v>
       </c>
       <c r="R16">
-        <v>0.093522782808</v>
+        <v>19.246030775701</v>
       </c>
       <c r="S16">
-        <v>3.552878256127116E-05</v>
+        <v>0.01407723886537332</v>
       </c>
       <c r="T16">
-        <v>2.622658879311945E-05</v>
+        <v>0.006793626151140863</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.5402755</v>
+        <v>2.7186785</v>
       </c>
       <c r="H17">
-        <v>5.080551</v>
+        <v>5.437357</v>
       </c>
       <c r="I17">
-        <v>0.1154567969002575</v>
+        <v>0.1443137264130649</v>
       </c>
       <c r="J17">
-        <v>0.08005204898729699</v>
+        <v>0.1010711349827635</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N17">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O17">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P17">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q17">
-        <v>9.228140097666</v>
+        <v>0.05061454386066667</v>
       </c>
       <c r="R17">
-        <v>36.912560390664</v>
+        <v>0.303687263164</v>
       </c>
       <c r="S17">
-        <v>0.02103431312440869</v>
+        <v>0.0001480851885341677</v>
       </c>
       <c r="T17">
-        <v>0.01035138726201721</v>
+        <v>0.0001071980896655405</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="H18">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="I18">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J18">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1550,28 +1550,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.04936133333333333</v>
+        <v>0.1030276666666667</v>
       </c>
       <c r="N18">
-        <v>0.148084</v>
+        <v>0.309083</v>
       </c>
       <c r="O18">
-        <v>0.002475496704993591</v>
+        <v>0.005678588141197309</v>
       </c>
       <c r="P18">
-        <v>0.002635547730441438</v>
+        <v>0.005869434938871914</v>
       </c>
       <c r="Q18">
-        <v>0.01556486243333333</v>
+        <v>0.08139412327533334</v>
       </c>
       <c r="R18">
-        <v>0.1400837619</v>
+        <v>0.7325471094779999</v>
       </c>
       <c r="S18">
-        <v>3.547802554968632E-05</v>
+        <v>0.0002381383525648604</v>
       </c>
       <c r="T18">
-        <v>3.928368157614622E-05</v>
+        <v>0.0002585806527014205</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="H19">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="I19">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J19">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,25 +1615,25 @@
         <v>16.251742</v>
       </c>
       <c r="N19">
-        <v>48.755226</v>
+        <v>48.75522599999999</v>
       </c>
       <c r="O19">
-        <v>0.8150333683194528</v>
+        <v>0.8957491941808339</v>
       </c>
       <c r="P19">
-        <v>0.8677286218055926</v>
+        <v>0.9258536604633588</v>
       </c>
       <c r="Q19">
-        <v>5.124580546150001</v>
+        <v>12.839233718324</v>
       </c>
       <c r="R19">
-        <v>46.12122491535</v>
+        <v>115.553103464916</v>
       </c>
       <c r="S19">
-        <v>0.0116807970726664</v>
+        <v>0.03756430861149738</v>
       </c>
       <c r="T19">
-        <v>0.01293377254367147</v>
+        <v>0.04078890835693087</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,55 +1647,55 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="H20">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="I20">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J20">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.006136</v>
+        <v>1.7697965</v>
       </c>
       <c r="N20">
-        <v>0.018408</v>
+        <v>3.539593</v>
       </c>
       <c r="O20">
-        <v>0.0003077236119062291</v>
+        <v>0.09754608390528599</v>
       </c>
       <c r="P20">
-        <v>0.0003276192068148212</v>
+        <v>0.06721628437535049</v>
       </c>
       <c r="Q20">
-        <v>0.0019348342</v>
+        <v>1.398178170523</v>
       </c>
       <c r="R20">
-        <v>0.0174135078</v>
+        <v>8.389069023137999</v>
       </c>
       <c r="S20">
-        <v>4.41019620160602E-06</v>
+        <v>0.00409071113149273</v>
       </c>
       <c r="T20">
-        <v>4.883269026050752E-06</v>
+        <v>0.00296124428790124</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1709,55 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.315325</v>
+        <v>0.790022</v>
       </c>
       <c r="H21">
-        <v>0.945975</v>
+        <v>2.370066</v>
       </c>
       <c r="I21">
-        <v>0.01433167956883957</v>
+        <v>0.04193619023665445</v>
       </c>
       <c r="J21">
-        <v>0.01490531972629706</v>
+        <v>0.04405545940869034</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>3.632732</v>
+        <v>0.01861733333333333</v>
       </c>
       <c r="N21">
-        <v>7.265464</v>
+        <v>0.055852</v>
       </c>
       <c r="O21">
-        <v>0.1821834113636472</v>
+        <v>0.001026133772682911</v>
       </c>
       <c r="P21">
-        <v>0.1293082112571511</v>
+        <v>0.001060620222418814</v>
       </c>
       <c r="Q21">
-        <v>1.1454912179</v>
+        <v>0.01470810291466667</v>
       </c>
       <c r="R21">
-        <v>6.8729473074</v>
+        <v>0.132372926232</v>
       </c>
       <c r="S21">
-        <v>0.002610994274421876</v>
+        <v>4.303214109948648E-05</v>
       </c>
       <c r="T21">
-        <v>0.001927380232023403</v>
+        <v>4.672611115680816E-05</v>
       </c>
     </row>
   </sheetData>
